--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sundogbaelt-my.sharepoint.com/personal/lugr_sbf_dk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="10_ncr:0_{817BD3A4-FBD2-48DC-943D-F72B86EBA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA61C25-56F0-4CEE-8739-A8E0C7E3E958}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="10_ncr:0_{817BD3A4-FBD2-48DC-943D-F72B86EBA242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32EEC55-14DA-4FD9-A6AE-7EE7104CC6FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{682FECAD-FFA6-4861-9B6B-CC4CD9E20AE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{682FECAD-FFA6-4861-9B6B-CC4CD9E20AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
   <si>
     <t>Data</t>
   </si>
@@ -635,135 +635,31 @@
     <t>TOTAL Progress</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual weekdays in apprenticeship contract period. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May be put forward as potential fall-back, but will not be considered before end of contract </t>
-  </si>
-  <si>
-    <t>Days realised in reporting period
-- actual -</t>
-  </si>
-  <si>
     <t>Category of apprenticeship</t>
-  </si>
-  <si>
-    <t>Pers. No.
-(Hrvan.nu)</t>
-  </si>
-  <si>
-    <t>Employer</t>
-  </si>
-  <si>
-    <t>Active during reporting period / Predicted start date if new contract</t>
-  </si>
-  <si>
-    <t>Start
-of
-contract date</t>
-  </si>
-  <si>
-    <t>End
-of
-contract date</t>
-  </si>
-  <si>
-    <t>Total apprenticeship days under contract Main Programme</t>
-  </si>
-  <si>
-    <t>GF2 days current month
-(agreed as potential fall back)</t>
-  </si>
-  <si>
-    <t>GF2 days contract to date
-(agreed as potential fall back)</t>
-  </si>
-  <si>
-    <t>Total 2020</t>
-  </si>
-  <si>
-    <t>Appr. mths 2020</t>
-  </si>
-  <si>
-    <t>Total 2021</t>
-  </si>
-  <si>
-    <t>Appr. mths 2021</t>
-  </si>
-  <si>
-    <t>Total 2022</t>
-  </si>
-  <si>
-    <t>Appr. mths 2022</t>
-  </si>
-  <si>
-    <t>Total 2023</t>
-  </si>
-  <si>
-    <t>Appr. mths 2023</t>
-  </si>
-  <si>
-    <t>APPR MONTHS CONTRACT TO DATE</t>
   </si>
   <si>
     <t>Office assistant 1</t>
   </si>
   <si>
-    <t>0431</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Service assistant 1</t>
-  </si>
-  <si>
-    <t>0554</t>
-  </si>
-  <si>
-    <t>Profil Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Service assistant 2</t>
   </si>
   <si>
-    <t>0555</t>
-  </si>
-  <si>
     <t>Warehouse apprentice 1</t>
-  </si>
-  <si>
-    <t>0482</t>
   </si>
   <si>
     <t>Machine Operator 1</t>
   </si>
   <si>
-    <t>0930</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
     <t>Machine Operator 2</t>
-  </si>
-  <si>
-    <t>0931</t>
   </si>
   <si>
     <t>Machine Operator 3</t>
   </si>
   <si>
-    <t>0932</t>
-  </si>
-  <si>
     <t>Machine Operator 4</t>
-  </si>
-  <si>
-    <t>0933</t>
   </si>
   <si>
     <t>Warehouse assistant</t>
@@ -775,13 +671,7 @@
     <t>Service assistant 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Re-Engagement </t>
-  </si>
-  <si>
     <t>HSE assistant</t>
-  </si>
-  <si>
-    <t>Van Oord</t>
   </si>
   <si>
     <t>Office assistant 2</t>
@@ -5649,11 +5539,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAA10C-0A3E-47E3-A094-27A8491DE848}">
   <dimension ref="B2:BF18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:58">
       <c r="B2" s="13"/>
@@ -5662,2069 +5559,1251 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO2" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
       <c r="AP2" s="14"/>
       <c r="AQ2" s="14"/>
-      <c r="AR2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AX2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC2" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
       <c r="BD2" s="14"/>
       <c r="BE2" s="13"/>
       <c r="BF2" s="13"/>
     </row>
     <row r="3" spans="2:58">
       <c r="B3" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L3" s="14">
-        <v>44136</v>
-      </c>
-      <c r="M3" s="14">
-        <v>44166</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="P3" s="13">
-        <v>44197</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>44228</v>
-      </c>
-      <c r="R3" s="13">
-        <v>44256</v>
-      </c>
-      <c r="S3" s="13">
-        <v>44287</v>
-      </c>
-      <c r="T3" s="13">
-        <v>44317</v>
-      </c>
-      <c r="U3" s="13">
-        <v>44348</v>
-      </c>
-      <c r="V3" s="13">
-        <v>44378</v>
-      </c>
-      <c r="W3" s="13">
-        <v>44409</v>
-      </c>
-      <c r="X3" s="13">
-        <v>44440</v>
-      </c>
-      <c r="Y3" s="13">
-        <v>44470</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>44501</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>44531</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>44583</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>44614</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>44642</v>
-      </c>
-      <c r="AG3" s="14">
-        <v>44673</v>
-      </c>
-      <c r="AH3" s="14">
-        <v>44703</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>44734</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>44764</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>44795</v>
-      </c>
-      <c r="AL3" s="14">
-        <v>44826</v>
-      </c>
-      <c r="AM3" s="14">
-        <v>44856</v>
-      </c>
-      <c r="AN3" s="14">
-        <v>44887</v>
-      </c>
-      <c r="AO3" s="14">
-        <v>44917</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ3" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR3" s="14">
-        <v>44948</v>
-      </c>
-      <c r="AS3" s="14">
-        <v>44979</v>
-      </c>
-      <c r="AT3" s="14">
-        <v>45007</v>
-      </c>
-      <c r="AU3" s="14">
-        <v>45038</v>
-      </c>
-      <c r="AV3" s="14">
-        <v>45068</v>
-      </c>
-      <c r="AW3" s="14">
-        <v>45099</v>
-      </c>
-      <c r="AX3" s="14">
-        <v>45129</v>
-      </c>
-      <c r="AY3" s="14">
-        <v>45160</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>45191</v>
-      </c>
-      <c r="BA3" s="14">
-        <v>45221</v>
-      </c>
-      <c r="BB3" s="14">
-        <v>45252</v>
-      </c>
-      <c r="BC3" s="14">
-        <v>45282</v>
-      </c>
-      <c r="BD3" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="BF3" s="13" t="s">
-        <v>215</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
     </row>
     <row r="4" spans="2:58">
       <c r="B4" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>218</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="13">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13">
+        <v>20</v>
+      </c>
+      <c r="E4" s="13">
+        <v>23</v>
       </c>
       <c r="F4" s="13">
-        <v>44137</v>
+        <v>22</v>
       </c>
       <c r="G4" s="13">
-        <v>44773</v>
+        <v>21</v>
       </c>
       <c r="H4" s="13">
-        <v>455</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="13">
+        <v>22</v>
+      </c>
+      <c r="J4" s="13">
+        <v>22</v>
+      </c>
       <c r="K4" s="13">
+        <v>22</v>
+      </c>
+      <c r="L4" s="13">
+        <v>21</v>
+      </c>
+      <c r="M4" s="14">
+        <v>22</v>
+      </c>
+      <c r="N4" s="14">
+        <v>23</v>
+      </c>
+      <c r="O4" s="14">
+        <v>21</v>
+      </c>
+      <c r="P4" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>23</v>
+      </c>
+      <c r="R4" s="14">
+        <v>21</v>
+      </c>
+      <c r="S4" s="14">
+        <v>22</v>
+      </c>
+      <c r="T4" s="14">
+        <v>22</v>
+      </c>
+      <c r="U4" s="14">
+        <v>21</v>
+      </c>
+      <c r="V4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="14">
-        <v>21</v>
-      </c>
-      <c r="M4" s="14">
-        <v>23</v>
-      </c>
-      <c r="N4" s="13">
-        <v>44</v>
-      </c>
-      <c r="O4" s="13">
-        <v>2</v>
-      </c>
-      <c r="P4" s="13">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>20</v>
-      </c>
-      <c r="R4" s="13">
-        <v>23</v>
-      </c>
-      <c r="S4" s="13">
-        <v>22</v>
-      </c>
-      <c r="T4" s="13">
-        <v>21</v>
-      </c>
-      <c r="U4" s="13">
-        <v>22</v>
-      </c>
-      <c r="V4" s="13">
-        <v>22</v>
-      </c>
-      <c r="W4" s="13">
-        <v>22</v>
-      </c>
-      <c r="X4" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>21</v>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
       </c>
       <c r="Z4" s="14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>261</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF4" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG4" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH4" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="14">
         <v>0</v>
       </c>
-      <c r="AL4" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
       <c r="AM4" s="14">
         <v>0</v>
       </c>
-      <c r="AN4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="14">
-        <v>150</v>
-      </c>
-      <c r="AQ4" s="14">
-        <v>7</v>
-      </c>
-      <c r="AR4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="13">
-        <v>21</v>
-      </c>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
     </row>
     <row r="5" spans="2:58">
       <c r="B5" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>218</v>
+        <v>197</v>
+      </c>
+      <c r="C5" s="13">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>23</v>
       </c>
       <c r="F5" s="13">
-        <v>44151</v>
+        <v>22</v>
       </c>
       <c r="G5" s="13">
-        <v>44757</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13">
-        <v>435</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>222</v>
+        <v>22</v>
+      </c>
+      <c r="I5" s="13">
+        <v>22</v>
       </c>
       <c r="J5" s="13">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
         <v>22</v>
+      </c>
+      <c r="L5" s="13">
+        <v>21</v>
       </c>
       <c r="M5" s="14">
         <v>22</v>
       </c>
-      <c r="N5" s="13">
-        <v>44</v>
-      </c>
-      <c r="O5" s="13">
-        <v>2.0041407867494825</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="N5" s="14">
+        <v>23</v>
+      </c>
+      <c r="O5" s="14">
+        <v>21</v>
+      </c>
+      <c r="P5" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>23</v>
+      </c>
+      <c r="R5" s="14">
+        <v>21</v>
+      </c>
+      <c r="S5" s="14">
+        <v>22</v>
+      </c>
+      <c r="T5" s="14">
+        <v>22</v>
+      </c>
+      <c r="U5" s="14">
         <v>11</v>
       </c>
-      <c r="Q5" s="13">
-        <v>20</v>
-      </c>
-      <c r="R5" s="13">
-        <v>23</v>
-      </c>
-      <c r="S5" s="13">
-        <v>22</v>
-      </c>
-      <c r="T5" s="13">
-        <v>21</v>
-      </c>
-      <c r="U5" s="13">
-        <v>22</v>
-      </c>
-      <c r="V5" s="13">
-        <v>22</v>
-      </c>
-      <c r="W5" s="13">
-        <v>22</v>
-      </c>
-      <c r="X5" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>21</v>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0</v>
       </c>
       <c r="Z5" s="14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>251</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>11.523809523809524</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>11</v>
-      </c>
-      <c r="AK5" s="14">
         <v>0</v>
       </c>
-      <c r="AL5" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
       <c r="AM5" s="14">
         <v>0</v>
       </c>
-      <c r="AN5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="14">
-        <v>140</v>
-      </c>
-      <c r="AQ5" s="14">
-        <v>6.5238095238095237</v>
-      </c>
-      <c r="AR5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="13">
-        <v>20.051759834368532</v>
-      </c>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
     </row>
     <row r="6" spans="2:58">
       <c r="B6" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>218</v>
+        <v>198</v>
+      </c>
+      <c r="C6" s="13">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>23</v>
       </c>
       <c r="F6" s="13">
-        <v>44151</v>
+        <v>22</v>
       </c>
       <c r="G6" s="13">
-        <v>44757</v>
+        <v>21</v>
       </c>
       <c r="H6" s="13">
-        <v>435</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>222</v>
+        <v>22</v>
+      </c>
+      <c r="I6" s="13">
+        <v>22</v>
       </c>
       <c r="J6" s="13">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
         <v>22</v>
+      </c>
+      <c r="L6" s="13">
+        <v>21</v>
       </c>
       <c r="M6" s="14">
         <v>22</v>
       </c>
-      <c r="N6" s="13">
-        <v>44</v>
-      </c>
-      <c r="O6" s="13">
-        <v>2.0041407867494825</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="N6" s="14">
+        <v>23</v>
+      </c>
+      <c r="O6" s="14">
+        <v>21</v>
+      </c>
+      <c r="P6" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>23</v>
+      </c>
+      <c r="R6" s="14">
+        <v>21</v>
+      </c>
+      <c r="S6" s="14">
+        <v>22</v>
+      </c>
+      <c r="T6" s="14">
+        <v>22</v>
+      </c>
+      <c r="U6" s="14">
         <v>11</v>
       </c>
-      <c r="Q6" s="13">
-        <v>20</v>
-      </c>
-      <c r="R6" s="13">
-        <v>23</v>
-      </c>
-      <c r="S6" s="13">
-        <v>22</v>
-      </c>
-      <c r="T6" s="13">
-        <v>21</v>
-      </c>
-      <c r="U6" s="13">
-        <v>22</v>
-      </c>
-      <c r="V6" s="13">
-        <v>22</v>
-      </c>
-      <c r="W6" s="13">
-        <v>22</v>
-      </c>
-      <c r="X6" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>21</v>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
       </c>
       <c r="Z6" s="14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>251</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>11.523809523809524</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG6" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH6" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ6" s="14">
-        <v>11</v>
-      </c>
-      <c r="AK6" s="14">
         <v>0</v>
       </c>
-      <c r="AL6" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
       <c r="AM6" s="14">
         <v>0</v>
       </c>
-      <c r="AN6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="14">
-        <v>140</v>
-      </c>
-      <c r="AQ6" s="14">
-        <v>6.5238095238095237</v>
-      </c>
-      <c r="AR6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="13">
-        <v>20.051759834368532</v>
-      </c>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
     </row>
     <row r="7" spans="2:58">
       <c r="B7" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>218</v>
+        <v>199</v>
+      </c>
+      <c r="C7" s="13">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13">
+        <v>23</v>
       </c>
       <c r="F7" s="13">
-        <v>44137</v>
+        <v>22</v>
       </c>
       <c r="G7" s="13">
-        <v>44789</v>
+        <v>21</v>
       </c>
       <c r="H7" s="13">
-        <v>467</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I7" s="13">
+        <v>22</v>
+      </c>
+      <c r="J7" s="13">
+        <v>22</v>
+      </c>
       <c r="K7" s="13">
+        <v>22</v>
+      </c>
+      <c r="L7" s="13">
+        <v>21</v>
+      </c>
+      <c r="M7" s="14">
+        <v>22</v>
+      </c>
+      <c r="N7" s="14">
+        <v>23</v>
+      </c>
+      <c r="O7" s="14">
+        <v>21</v>
+      </c>
+      <c r="P7" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>23</v>
+      </c>
+      <c r="R7" s="14">
+        <v>21</v>
+      </c>
+      <c r="S7" s="14">
+        <v>22</v>
+      </c>
+      <c r="T7" s="14">
+        <v>22</v>
+      </c>
+      <c r="U7" s="14">
+        <v>21</v>
+      </c>
+      <c r="V7" s="14">
+        <v>12</v>
+      </c>
+      <c r="W7" s="14">
         <v>0</v>
       </c>
-      <c r="L7" s="14">
-        <v>21</v>
-      </c>
-      <c r="M7" s="14">
-        <v>23</v>
-      </c>
-      <c r="N7" s="13">
-        <v>44</v>
-      </c>
-      <c r="O7" s="13">
-        <v>2</v>
-      </c>
-      <c r="P7" s="13">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>20</v>
-      </c>
-      <c r="R7" s="13">
-        <v>23</v>
-      </c>
-      <c r="S7" s="13">
-        <v>22</v>
-      </c>
-      <c r="T7" s="13">
-        <v>21</v>
-      </c>
-      <c r="U7" s="13">
-        <v>22</v>
-      </c>
-      <c r="V7" s="13">
-        <v>22</v>
-      </c>
-      <c r="W7" s="13">
-        <v>22</v>
-      </c>
-      <c r="X7" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>21</v>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0</v>
       </c>
       <c r="Z7" s="14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>261</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI7" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ7" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK7" s="14">
-        <v>12</v>
-      </c>
-      <c r="AL7" s="14">
         <v>0</v>
       </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
       <c r="AM7" s="14">
         <v>0</v>
       </c>
-      <c r="AN7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="14">
-        <v>162</v>
-      </c>
-      <c r="AQ7" s="14">
-        <v>7.5217391304347823</v>
-      </c>
-      <c r="AR7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="13">
-        <v>21.521739130434781</v>
-      </c>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
     </row>
     <row r="8" spans="2:58">
       <c r="B8" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>218</v>
+        <v>200</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>23</v>
       </c>
       <c r="F8" s="13">
-        <v>44256</v>
+        <v>22</v>
       </c>
       <c r="G8" s="13">
-        <v>44911</v>
+        <v>21</v>
       </c>
       <c r="H8" s="13">
-        <v>470</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="13">
+        <v>22</v>
+      </c>
+      <c r="J8" s="13">
+        <v>22</v>
+      </c>
       <c r="K8" s="13">
+        <v>22</v>
+      </c>
+      <c r="L8" s="13">
+        <v>21</v>
+      </c>
+      <c r="M8" s="14">
+        <v>22</v>
+      </c>
+      <c r="N8" s="14">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>21</v>
+      </c>
+      <c r="P8" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>23</v>
+      </c>
+      <c r="R8" s="14">
+        <v>21</v>
+      </c>
+      <c r="S8" s="14">
+        <v>22</v>
+      </c>
+      <c r="T8" s="14">
+        <v>22</v>
+      </c>
+      <c r="U8" s="14">
+        <v>21</v>
+      </c>
+      <c r="V8" s="14">
+        <v>23</v>
+      </c>
+      <c r="W8" s="14">
+        <v>22</v>
+      </c>
+      <c r="X8" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="14">
         <v>0</v>
       </c>
-      <c r="L8" s="14">
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14">
         <v>0</v>
       </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>23</v>
-      </c>
-      <c r="S8" s="13">
-        <v>22</v>
-      </c>
-      <c r="T8" s="13">
-        <v>21</v>
-      </c>
-      <c r="U8" s="13">
-        <v>22</v>
-      </c>
-      <c r="V8" s="13">
-        <v>22</v>
-      </c>
-      <c r="W8" s="13">
-        <v>22</v>
-      </c>
-      <c r="X8" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>220</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK8" s="14">
-        <v>23</v>
-      </c>
-      <c r="AL8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AM8" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN8" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO8" s="14">
-        <v>12</v>
-      </c>
-      <c r="AP8" s="14">
-        <v>250</v>
-      </c>
-      <c r="AQ8" s="14">
-        <v>11.545454545454545</v>
-      </c>
-      <c r="AR8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="13">
-        <v>21.545454545454547</v>
-      </c>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
     </row>
     <row r="9" spans="2:58">
       <c r="B9" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>218</v>
+        <v>201</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>23</v>
       </c>
       <c r="F9" s="13">
-        <v>44256</v>
+        <v>22</v>
       </c>
       <c r="G9" s="13">
-        <v>44911</v>
+        <v>21</v>
       </c>
       <c r="H9" s="13">
-        <v>470</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="13">
+        <v>22</v>
+      </c>
+      <c r="J9" s="13">
+        <v>22</v>
+      </c>
       <c r="K9" s="13">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13">
+        <v>21</v>
+      </c>
+      <c r="M9" s="14">
+        <v>22</v>
+      </c>
+      <c r="N9" s="14">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>21</v>
+      </c>
+      <c r="P9" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>23</v>
+      </c>
+      <c r="R9" s="14">
+        <v>21</v>
+      </c>
+      <c r="S9" s="14">
+        <v>22</v>
+      </c>
+      <c r="T9" s="14">
+        <v>22</v>
+      </c>
+      <c r="U9" s="14">
+        <v>21</v>
+      </c>
+      <c r="V9" s="14">
+        <v>23</v>
+      </c>
+      <c r="W9" s="14">
+        <v>22</v>
+      </c>
+      <c r="X9" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="14">
         <v>0</v>
       </c>
-      <c r="L9" s="14">
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14">
         <v>0</v>
       </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>23</v>
-      </c>
-      <c r="S9" s="13">
-        <v>22</v>
-      </c>
-      <c r="T9" s="13">
-        <v>21</v>
-      </c>
-      <c r="U9" s="13">
-        <v>22</v>
-      </c>
-      <c r="V9" s="13">
-        <v>22</v>
-      </c>
-      <c r="W9" s="13">
-        <v>22</v>
-      </c>
-      <c r="X9" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>220</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK9" s="14">
-        <v>23</v>
-      </c>
-      <c r="AL9" s="14">
-        <v>22</v>
-      </c>
-      <c r="AM9" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN9" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>12</v>
-      </c>
-      <c r="AP9" s="14">
-        <v>250</v>
-      </c>
-      <c r="AQ9" s="14">
-        <v>11.545454545454545</v>
-      </c>
-      <c r="AR9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="13">
-        <v>21.545454545454547</v>
-      </c>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
     </row>
     <row r="10" spans="2:58">
       <c r="B10" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>218</v>
+        <v>202</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>23</v>
       </c>
       <c r="F10" s="13">
-        <v>44256</v>
+        <v>22</v>
       </c>
       <c r="G10" s="13">
-        <v>44911</v>
+        <v>21</v>
       </c>
       <c r="H10" s="13">
-        <v>470</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I10" s="13">
+        <v>22</v>
+      </c>
+      <c r="J10" s="13">
+        <v>22</v>
+      </c>
       <c r="K10" s="13">
+        <v>22</v>
+      </c>
+      <c r="L10" s="13">
+        <v>21</v>
+      </c>
+      <c r="M10" s="14">
+        <v>22</v>
+      </c>
+      <c r="N10" s="14">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14">
+        <v>21</v>
+      </c>
+      <c r="P10" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>23</v>
+      </c>
+      <c r="R10" s="14">
+        <v>21</v>
+      </c>
+      <c r="S10" s="14">
+        <v>22</v>
+      </c>
+      <c r="T10" s="14">
+        <v>22</v>
+      </c>
+      <c r="U10" s="14">
+        <v>21</v>
+      </c>
+      <c r="V10" s="14">
+        <v>23</v>
+      </c>
+      <c r="W10" s="14">
+        <v>22</v>
+      </c>
+      <c r="X10" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="14">
         <v>0</v>
       </c>
-      <c r="L10" s="14">
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14">
         <v>0</v>
       </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>23</v>
-      </c>
-      <c r="S10" s="13">
-        <v>22</v>
-      </c>
-      <c r="T10" s="13">
-        <v>21</v>
-      </c>
-      <c r="U10" s="13">
-        <v>22</v>
-      </c>
-      <c r="V10" s="13">
-        <v>22</v>
-      </c>
-      <c r="W10" s="13">
-        <v>22</v>
-      </c>
-      <c r="X10" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>220</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK10" s="14">
-        <v>23</v>
-      </c>
-      <c r="AL10" s="14">
-        <v>22</v>
-      </c>
-      <c r="AM10" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN10" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO10" s="14">
-        <v>12</v>
-      </c>
-      <c r="AP10" s="14">
-        <v>250</v>
-      </c>
-      <c r="AQ10" s="14">
-        <v>11.545454545454545</v>
-      </c>
-      <c r="AR10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="13">
-        <v>21.545454545454547</v>
-      </c>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
     </row>
     <row r="11" spans="2:58">
       <c r="B11" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>218</v>
+        <v>203</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>23</v>
       </c>
       <c r="F11" s="13">
-        <v>44256</v>
+        <v>22</v>
       </c>
       <c r="G11" s="13">
-        <v>44911</v>
+        <v>21</v>
       </c>
       <c r="H11" s="13">
-        <v>470</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="I11" s="13">
+        <v>22</v>
+      </c>
+      <c r="J11" s="13">
+        <v>22</v>
+      </c>
       <c r="K11" s="13">
+        <v>22</v>
+      </c>
+      <c r="L11" s="13">
+        <v>21</v>
+      </c>
+      <c r="M11" s="14">
+        <v>22</v>
+      </c>
+      <c r="N11" s="14">
+        <v>23</v>
+      </c>
+      <c r="O11" s="14">
+        <v>21</v>
+      </c>
+      <c r="P11" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>23</v>
+      </c>
+      <c r="R11" s="14">
+        <v>21</v>
+      </c>
+      <c r="S11" s="14">
+        <v>22</v>
+      </c>
+      <c r="T11" s="14">
+        <v>22</v>
+      </c>
+      <c r="U11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="V11" s="14">
+        <v>23</v>
+      </c>
+      <c r="W11" s="14">
+        <v>22</v>
+      </c>
+      <c r="X11" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="14">
         <v>0</v>
       </c>
-      <c r="M11" s="14">
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>23</v>
-      </c>
-      <c r="S11" s="13">
-        <v>22</v>
-      </c>
-      <c r="T11" s="13">
-        <v>21</v>
-      </c>
-      <c r="U11" s="13">
-        <v>22</v>
-      </c>
-      <c r="V11" s="13">
-        <v>22</v>
-      </c>
-      <c r="W11" s="13">
-        <v>22</v>
-      </c>
-      <c r="X11" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>220</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="14">
-        <v>23</v>
-      </c>
-      <c r="AL11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AM11" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN11" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>12</v>
-      </c>
-      <c r="AP11" s="14">
-        <v>229</v>
-      </c>
-      <c r="AQ11" s="14">
-        <v>10.545454545454545</v>
-      </c>
-      <c r="AR11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="13">
-        <v>20.545454545454547</v>
-      </c>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
     </row>
     <row r="12" spans="2:58">
       <c r="B12" s="13" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C12" s="13">
-        <v>1462</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="13">
-        <v>44368</v>
-      </c>
-      <c r="G12" s="13">
-        <v>44732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="13">
-        <v>261</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="13">
+        <v>22</v>
+      </c>
+      <c r="J12" s="13">
+        <v>22</v>
+      </c>
       <c r="K12" s="13">
+        <v>22</v>
+      </c>
+      <c r="L12" s="13">
+        <v>21</v>
+      </c>
+      <c r="M12" s="14">
+        <v>22</v>
+      </c>
+      <c r="N12" s="14">
+        <v>23</v>
+      </c>
+      <c r="O12" s="14">
+        <v>21</v>
+      </c>
+      <c r="P12" s="14">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>23</v>
+      </c>
+      <c r="R12" s="14">
+        <v>21</v>
+      </c>
+      <c r="S12" s="14">
+        <v>22</v>
+      </c>
+      <c r="T12" s="14">
+        <v>14</v>
+      </c>
+      <c r="U12" s="14">
         <v>0</v>
       </c>
-      <c r="L12" s="14">
+      <c r="V12" s="14">
         <v>0</v>
       </c>
-      <c r="M12" s="14">
+      <c r="W12" s="14">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
+      <c r="X12" s="14">
         <v>0</v>
       </c>
-      <c r="O12" s="13">
+      <c r="Y12" s="14">
         <v>0</v>
       </c>
-      <c r="P12" s="13">
+      <c r="Z12" s="14">
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="AA12" s="14">
         <v>0</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13">
-        <v>8</v>
-      </c>
-      <c r="V12" s="13">
-        <v>22</v>
-      </c>
-      <c r="W12" s="13">
-        <v>22</v>
-      </c>
-      <c r="X12" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>140</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>6.3636363636363633</v>
-      </c>
-      <c r="AD12" s="14">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>23</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>21</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>22</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>14</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
       <c r="AM12" s="14">
         <v>0</v>
       </c>
-      <c r="AN12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="14">
-        <v>121</v>
-      </c>
-      <c r="AQ12" s="14">
-        <v>5.6363636363636367</v>
-      </c>
-      <c r="AR12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="13">
-        <v>12</v>
-      </c>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
     </row>
     <row r="13" spans="2:58">
       <c r="B13" s="13" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C13" s="13">
-        <v>1535</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="13">
-        <v>44377</v>
-      </c>
-      <c r="G13" s="13">
-        <v>44742</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="13">
-        <v>262</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>22</v>
+      </c>
+      <c r="J13" s="13">
+        <v>22</v>
+      </c>
       <c r="K13" s="13">
+        <v>22</v>
+      </c>
+      <c r="L13" s="13">
+        <v>21</v>
+      </c>
+      <c r="M13" s="14">
+        <v>22</v>
+      </c>
+      <c r="N13" s="14">
+        <v>8</v>
+      </c>
+      <c r="O13" s="14">
+        <v>8</v>
+      </c>
+      <c r="P13" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>15</v>
+      </c>
+      <c r="R13" s="14">
+        <v>15</v>
+      </c>
+      <c r="S13" s="14">
+        <v>12</v>
+      </c>
+      <c r="T13" s="14">
+        <v>12</v>
+      </c>
+      <c r="U13" s="14">
         <v>0</v>
       </c>
-      <c r="L13" s="14">
+      <c r="V13" s="14">
         <v>0</v>
       </c>
-      <c r="M13" s="14">
+      <c r="W13" s="14">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
+      <c r="X13" s="14">
         <v>0</v>
       </c>
-      <c r="O13" s="13">
+      <c r="Y13" s="14">
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="Z13" s="14">
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="AA13" s="14">
         <v>0</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="13">
-        <v>22</v>
-      </c>
-      <c r="W13" s="13">
-        <v>22</v>
-      </c>
-      <c r="X13" s="13">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>8</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>118</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>5.3932806324110665</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>8</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>13</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>15</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>15</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>12</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>12</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
       <c r="AM13" s="14">
         <v>0</v>
       </c>
-      <c r="AN13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>75</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>3.4883210991906641</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="13">
-        <v>8.8816017316017302</v>
-      </c>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
     </row>
     <row r="14" spans="2:58">
       <c r="B14" s="13" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="C14" s="13">
-        <v>3590</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="13">
-        <v>44592</v>
-      </c>
-      <c r="G14" s="13">
-        <v>44771</v>
-      </c>
-      <c r="H14" s="13">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>12</v>
+      </c>
+      <c r="R14" s="14">
+        <v>12</v>
+      </c>
+      <c r="S14" s="14">
+        <v>12</v>
+      </c>
+      <c r="T14" s="14">
+        <v>12</v>
+      </c>
+      <c r="U14" s="14">
+        <v>12</v>
+      </c>
+      <c r="V14" s="14">
         <v>0</v>
       </c>
-      <c r="L14" s="14">
+      <c r="W14" s="14">
         <v>0</v>
       </c>
-      <c r="M14" s="14">
+      <c r="X14" s="14">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
+      <c r="Y14" s="14">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
+      <c r="Z14" s="14">
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="AA14" s="14">
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
       <c r="AM14" s="14">
         <v>0</v>
       </c>
-      <c r="AN14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="14">
-        <v>73</v>
-      </c>
-      <c r="AQ14" s="14">
-        <v>3.4031244118200643</v>
-      </c>
-      <c r="AR14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="13">
-        <v>3.4031244118200643</v>
-      </c>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
     </row>
     <row r="15" spans="2:58">
       <c r="B15" s="13" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C15" s="13">
-        <v>3592</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="13">
-        <v>44741</v>
-      </c>
-      <c r="G15" s="13">
-        <v>44926</v>
-      </c>
-      <c r="H15" s="13">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14">
         <v>0</v>
       </c>
-      <c r="L15" s="14">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14">
+        <v>2</v>
+      </c>
+      <c r="U15" s="14">
+        <v>21</v>
+      </c>
+      <c r="V15" s="14">
+        <v>23</v>
+      </c>
+      <c r="W15" s="14">
+        <v>22</v>
+      </c>
+      <c r="X15" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="14">
         <v>0</v>
       </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="14">
-        <v>0</v>
-      </c>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
-      <c r="AE15" s="14">
-        <v>0</v>
-      </c>
+      <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
       <c r="AG15" s="14"/>
       <c r="AH15" s="14"/>
-      <c r="AI15" s="14">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="14">
-        <v>21</v>
-      </c>
-      <c r="AK15" s="14">
-        <v>23</v>
-      </c>
-      <c r="AL15" s="14">
-        <v>22</v>
-      </c>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
       <c r="AM15" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN15" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO15" s="14">
-        <v>22</v>
-      </c>
-      <c r="AP15" s="14">
-        <v>133</v>
-      </c>
-      <c r="AQ15" s="14">
-        <v>6.0909090909090908</v>
-      </c>
-      <c r="AR15" s="14">
         <v>0</v>
       </c>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="13">
-        <v>6.0909090909090908</v>
-      </c>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
     </row>
     <row r="16" spans="2:58">
       <c r="B16" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="13">
-        <v>3660</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="13">
-        <v>44790</v>
-      </c>
-      <c r="G16" s="13">
-        <v>44972</v>
-      </c>
-      <c r="H16" s="13">
-        <v>131</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14">
+        <v>11</v>
+      </c>
+      <c r="W16" s="14">
+        <v>13</v>
+      </c>
+      <c r="X16" s="14">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>8</v>
+      </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
@@ -7733,96 +6812,59 @@
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AK16" s="14">
-        <v>11</v>
-      </c>
-      <c r="AL16" s="14">
-        <v>13</v>
-      </c>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
       <c r="AM16" s="14">
-        <v>13</v>
-      </c>
-      <c r="AN16" s="14">
-        <v>13</v>
-      </c>
-      <c r="AO16" s="14">
-        <v>12</v>
-      </c>
-      <c r="AP16" s="14">
-        <v>62</v>
-      </c>
-      <c r="AQ16" s="14">
-        <v>2.8245812158855639</v>
-      </c>
-      <c r="AR16" s="14">
-        <v>12</v>
-      </c>
-      <c r="AS16" s="14">
-        <v>8</v>
-      </c>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14">
         <v>20</v>
       </c>
-      <c r="BE16" s="13">
-        <v>0.94545454545454544</v>
-      </c>
-      <c r="BF16" s="13">
-        <v>3.7700357613401092</v>
-      </c>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
     </row>
     <row r="17" spans="2:58">
       <c r="B17" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3684</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" s="13">
-        <v>44823</v>
-      </c>
-      <c r="G17" s="13">
-        <v>45199</v>
-      </c>
-      <c r="H17" s="13">
-        <v>270</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14">
+        <v>10</v>
+      </c>
+      <c r="X17" s="14">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>23</v>
+      </c>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
@@ -7831,214 +6873,130 @@
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
-      <c r="AL17" s="14">
-        <v>10</v>
-      </c>
+      <c r="AL17" s="14"/>
       <c r="AM17" s="14">
-        <v>21</v>
-      </c>
-      <c r="AN17" s="14">
-        <v>22</v>
-      </c>
-      <c r="AO17" s="14">
-        <v>22</v>
-      </c>
-      <c r="AP17" s="14">
-        <v>75</v>
-      </c>
-      <c r="AQ17" s="14">
-        <v>3.4545454545454546</v>
-      </c>
-      <c r="AR17" s="14">
-        <v>22</v>
-      </c>
-      <c r="AS17" s="14">
-        <v>20</v>
-      </c>
-      <c r="AT17" s="14">
-        <v>23</v>
-      </c>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14">
         <v>65</v>
       </c>
-      <c r="BE17" s="13">
-        <v>3</v>
-      </c>
-      <c r="BF17" s="13">
-        <v>6.454545454545455</v>
-      </c>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
     </row>
     <row r="18" spans="2:58">
       <c r="B18" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="13">
+        <v>64</v>
+      </c>
+      <c r="D18" s="13">
+        <v>80</v>
+      </c>
+      <c r="E18" s="13">
+        <v>184</v>
+      </c>
+      <c r="F18" s="13">
+        <v>176</v>
+      </c>
+      <c r="G18" s="13">
+        <v>168</v>
+      </c>
       <c r="H18" s="13">
-        <v>4458</v>
+        <v>185</v>
       </c>
       <c r="I18" s="13">
+        <v>220</v>
+      </c>
+      <c r="J18" s="13">
+        <v>220</v>
+      </c>
+      <c r="K18" s="13">
+        <v>220</v>
+      </c>
+      <c r="L18" s="13">
+        <v>210</v>
+      </c>
+      <c r="M18" s="14">
+        <v>220</v>
+      </c>
+      <c r="N18" s="14">
+        <v>215</v>
+      </c>
+      <c r="O18" s="14">
+        <v>198</v>
+      </c>
+      <c r="P18" s="14">
+        <v>205</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>234</v>
+      </c>
+      <c r="R18" s="14">
+        <v>216</v>
+      </c>
+      <c r="S18" s="14">
+        <v>222</v>
+      </c>
+      <c r="T18" s="14">
+        <v>216</v>
+      </c>
+      <c r="U18" s="14">
+        <v>160</v>
+      </c>
+      <c r="V18" s="14">
+        <v>138</v>
+      </c>
+      <c r="W18" s="14">
+        <v>133</v>
+      </c>
+      <c r="X18" s="14">
+        <v>139</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>145</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>104</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>28</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <v>88</v>
-      </c>
-      <c r="K18" s="13">
+      <c r="AE18" s="14">
         <v>0</v>
       </c>
-      <c r="L18" s="14">
-        <v>86</v>
-      </c>
-      <c r="M18" s="14">
-        <v>90</v>
-      </c>
-      <c r="N18" s="13">
-        <v>176</v>
-      </c>
-      <c r="O18" s="13">
-        <v>8.0082815734989659</v>
-      </c>
-      <c r="P18" s="13">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>80</v>
-      </c>
-      <c r="R18" s="13">
-        <v>184</v>
-      </c>
-      <c r="S18" s="13">
-        <v>176</v>
-      </c>
-      <c r="T18" s="13">
-        <v>168</v>
-      </c>
-      <c r="U18" s="13">
-        <v>185</v>
-      </c>
-      <c r="V18" s="13">
-        <v>220</v>
-      </c>
-      <c r="W18" s="13">
-        <v>220</v>
-      </c>
-      <c r="X18" s="13">
-        <v>220</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>210</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>220</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>215</v>
-      </c>
-      <c r="AB18" s="14">
-        <v>2162</v>
-      </c>
-      <c r="AC18" s="14">
-        <v>98.804536043666474</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>198</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>205</v>
-      </c>
       <c r="AF18" s="14">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="14">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="14">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="14">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="14">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="14">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="14">
-        <v>139</v>
-      </c>
-      <c r="AN18" s="14">
-        <v>145</v>
-      </c>
-      <c r="AO18" s="14">
-        <v>104</v>
-      </c>
-      <c r="AP18" s="14">
-        <v>2110</v>
-      </c>
-      <c r="AQ18" s="14">
-        <v>97.64902126858648</v>
-      </c>
-      <c r="AR18" s="14">
-        <v>34</v>
-      </c>
-      <c r="AS18" s="14">
-        <v>28</v>
-      </c>
-      <c r="AT18" s="14">
-        <v>23</v>
-      </c>
-      <c r="AU18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="14">
         <v>85</v>
       </c>
-      <c r="BE18" s="13">
-        <v>3.9454545454545453</v>
-      </c>
-      <c r="BF18" s="13">
-        <v>208.40729343120648</v>
-      </c>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8049,8 +7007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3148E4-24F5-42CF-8AF2-A5643964FBFB}">
   <dimension ref="A2:DI169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8396,7 +7354,7 @@
     </row>
     <row r="3" spans="1:113" ht="28.8">
       <c r="A3" s="15" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B3" s="9">
         <v>44197</v>
@@ -8737,7 +7695,7 @@
     </row>
     <row r="4" spans="1:113">
       <c r="A4" s="16" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8905,7 +7863,7 @@
     </row>
     <row r="5" spans="1:113">
       <c r="A5" s="16" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9073,7 +8031,7 @@
     </row>
     <row r="6" spans="1:113">
       <c r="A6" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -9215,7 +8173,7 @@
     </row>
     <row r="7" spans="1:113">
       <c r="A7" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -9383,7 +8341,7 @@
     </row>
     <row r="8" spans="1:113">
       <c r="A8" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -9509,7 +8467,7 @@
     </row>
     <row r="9" spans="1:113">
       <c r="A9" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -9649,7 +8607,7 @@
     </row>
     <row r="10" spans="1:113">
       <c r="A10" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -9819,7 +8777,7 @@
     </row>
     <row r="11" spans="1:113">
       <c r="A11" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -11229,7 +10187,7 @@
     </row>
     <row r="19" spans="1:113">
       <c r="A19" s="16" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -11447,7 +10405,7 @@
     </row>
     <row r="20" spans="1:113">
       <c r="A20" s="16" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -11573,7 +10531,7 @@
     </row>
     <row r="21" spans="1:113">
       <c r="A21" s="16" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -11753,7 +10711,7 @@
     </row>
     <row r="22" spans="1:113">
       <c r="A22" s="16" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11">
@@ -11897,7 +10855,7 @@
     </row>
     <row r="23" spans="1:113">
       <c r="A23" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B23" s="11">
         <v>28</v>
@@ -12093,7 +11051,7 @@
     </row>
     <row r="24" spans="1:113">
       <c r="A24" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -12305,7 +11263,7 @@
     </row>
     <row r="25" spans="1:113">
       <c r="A25" s="17" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -12465,7 +11423,7 @@
     </row>
     <row r="26" spans="1:113">
       <c r="A26" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12609,7 +11567,7 @@
     </row>
     <row r="27" spans="1:113">
       <c r="A27" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -12787,7 +11745,7 @@
     </row>
     <row r="28" spans="1:113">
       <c r="A28" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -14127,7 +13085,7 @@
     </row>
     <row r="38" spans="1:113">
       <c r="A38" s="17" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -14253,7 +13211,7 @@
     </row>
     <row r="39" spans="1:113">
       <c r="A39" s="17" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -14377,7 +13335,7 @@
     </row>
     <row r="40" spans="1:113">
       <c r="A40" s="17" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -14775,7 +13733,7 @@
     </row>
     <row r="43" spans="1:113">
       <c r="A43" s="16" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -18103,7 +17061,7 @@
     </row>
     <row r="67" spans="1:113">
       <c r="A67" s="16" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -18273,7 +17231,7 @@
     </row>
     <row r="68" spans="1:113">
       <c r="A68" s="16" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -18647,7 +17605,7 @@
     </row>
     <row r="70" spans="1:113">
       <c r="A70" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -19111,7 +18069,7 @@
     </row>
     <row r="73" spans="1:113">
       <c r="A73" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -19313,7 +18271,7 @@
     </row>
     <row r="74" spans="1:113">
       <c r="A74" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -19515,7 +18473,7 @@
     </row>
     <row r="75" spans="1:113">
       <c r="A75" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -19647,7 +18605,7 @@
     </row>
     <row r="76" spans="1:113">
       <c r="A76" s="16" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -19803,7 +18761,7 @@
     </row>
     <row r="77" spans="1:113">
       <c r="A77" s="16" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -21259,7 +20217,7 @@
     </row>
     <row r="88" spans="1:113">
       <c r="A88" s="18" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B88" s="11">
         <v>8</v>
@@ -21427,7 +20385,7 @@
     </row>
     <row r="89" spans="1:113">
       <c r="A89" s="18" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B89" s="11">
         <v>8</v>
@@ -21921,7 +20879,7 @@
     </row>
     <row r="92" spans="1:113">
       <c r="A92" s="16" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -22089,7 +21047,7 @@
     </row>
     <row r="93" spans="1:113">
       <c r="A93" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -23437,7 +22395,7 @@
     </row>
     <row r="101" spans="1:113">
       <c r="A101" s="17" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -24671,7 +23629,7 @@
     </row>
     <row r="109" spans="1:113">
       <c r="A109" s="17" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -25069,7 +24027,7 @@
     </row>
     <row r="111" spans="1:113">
       <c r="A111" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -25239,7 +24197,7 @@
     </row>
     <row r="112" spans="1:113">
       <c r="A112" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -25405,7 +24363,7 @@
     </row>
     <row r="113" spans="1:113">
       <c r="A113" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -25701,7 +24659,7 @@
     </row>
     <row r="115" spans="1:113">
       <c r="A115" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -25821,7 +24779,7 @@
     </row>
     <row r="116" spans="1:113">
       <c r="A116" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -26029,7 +24987,7 @@
     </row>
     <row r="117" spans="1:113">
       <c r="A117" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -26237,7 +25195,7 @@
     </row>
     <row r="118" spans="1:113">
       <c r="A118" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -26857,7 +25815,7 @@
     </row>
     <row r="121" spans="1:113">
       <c r="A121" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -27025,7 +25983,7 @@
     </row>
     <row r="122" spans="1:113">
       <c r="A122" s="17" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -27483,7 +26441,7 @@
     </row>
     <row r="125" spans="1:113">
       <c r="A125" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -27615,7 +26573,7 @@
     </row>
     <row r="126" spans="1:113">
       <c r="A126" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -27785,7 +26743,7 @@
     </row>
     <row r="127" spans="1:113">
       <c r="A127" s="17" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -27935,7 +26893,7 @@
     </row>
     <row r="128" spans="1:113">
       <c r="A128" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -28105,7 +27063,7 @@
     </row>
     <row r="129" spans="1:113">
       <c r="A129" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -28275,7 +27233,7 @@
     </row>
     <row r="130" spans="1:113">
       <c r="A130" s="16" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -28443,7 +27401,7 @@
     </row>
     <row r="131" spans="1:113">
       <c r="A131" s="17" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -29271,7 +28229,7 @@
     </row>
     <row r="137" spans="1:113">
       <c r="A137" s="17" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -29401,7 +28359,7 @@
     </row>
     <row r="138" spans="1:113">
       <c r="A138" s="17" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -29533,7 +28491,7 @@
     </row>
     <row r="139" spans="1:113">
       <c r="A139" s="17" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -29661,7 +28619,7 @@
     </row>
     <row r="140" spans="1:113">
       <c r="A140" s="17" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -29783,7 +28741,7 @@
     </row>
     <row r="141" spans="1:113">
       <c r="A141" s="17" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -29909,7 +28867,7 @@
     </row>
     <row r="142" spans="1:113">
       <c r="A142" s="17" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -30029,7 +28987,7 @@
     </row>
     <row r="143" spans="1:113">
       <c r="A143" s="17" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -30153,7 +29111,7 @@
     </row>
     <row r="144" spans="1:113">
       <c r="A144" s="17" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -30275,7 +29233,7 @@
     </row>
     <row r="145" spans="1:113">
       <c r="A145" s="17" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -30397,7 +29355,7 @@
     </row>
     <row r="146" spans="1:113">
       <c r="A146" s="17" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -30519,7 +29477,7 @@
     </row>
     <row r="147" spans="1:113">
       <c r="A147" s="17" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -32883,7 +31841,7 @@
     </row>
     <row r="165" spans="1:113">
       <c r="A165" s="17" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -33045,7 +32003,7 @@
     </row>
     <row r="166" spans="1:113">
       <c r="A166" s="17" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
